--- a/CodeSystem-dhis2-data-elements-cs.xlsx
+++ b/CodeSystem-dhis2-data-elements-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-15T10:57:51+00:00</t>
+    <t>2026-01-15T12:19:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-dhis2-data-elements-cs.xlsx
+++ b/CodeSystem-dhis2-data-elements-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-15T12:19:16+00:00</t>
+    <t>2026-01-15T13:05:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-dhis2-data-elements-cs.xlsx
+++ b/CodeSystem-dhis2-data-elements-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-15T13:05:29+00:00</t>
+    <t>2026-01-15T13:53:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
